--- a/all_players_2019.xlsx
+++ b/all_players_2019.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fantasy-team-picker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA10BB-B624-4486-A8BB-246D14C1996E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="1045">
   <si>
     <t>Player</t>
   </si>
@@ -2974,13 +2968,199 @@
   </si>
   <si>
     <t>Yelder, Deon</t>
+  </si>
+  <si>
+    <t>Badgley, Michael</t>
+  </si>
+  <si>
+    <t>Bailey, Dan</t>
+  </si>
+  <si>
+    <t>Boswell, Chris</t>
+  </si>
+  <si>
+    <t>Bullock, Randy</t>
+  </si>
+  <si>
+    <t>Butker, Harrison</t>
+  </si>
+  <si>
+    <t>Carlson, Daniel</t>
+  </si>
+  <si>
+    <t>Crosby, Mason</t>
+  </si>
+  <si>
+    <t>Elliott, Jake</t>
+  </si>
+  <si>
+    <t>Fairbairn, Ka'imi</t>
+  </si>
+  <si>
+    <t>Ficken, Sam</t>
+  </si>
+  <si>
+    <t>Forbath, Kai</t>
+  </si>
+  <si>
+    <t>Gay, Matt</t>
+  </si>
+  <si>
+    <t>Gonzalez, Zane</t>
+  </si>
+  <si>
+    <t>Gould, Robbie</t>
+  </si>
+  <si>
+    <t>Hauschka, Stephen</t>
+  </si>
+  <si>
+    <t>Hopkins, Dustin</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Koo, Younghoe</t>
+  </si>
+  <si>
+    <t>Lambo, Josh</t>
+  </si>
+  <si>
+    <t>Lutz, Wil</t>
+  </si>
+  <si>
+    <t>Maher, Brett</t>
+  </si>
+  <si>
+    <t>McLaughlin, Chase</t>
+  </si>
+  <si>
+    <t>McManus, Brandon</t>
+  </si>
+  <si>
+    <t>Myers, Jason</t>
+  </si>
+  <si>
+    <t>Pineiro, Eddy</t>
+  </si>
+  <si>
+    <t>Prater, Matt</t>
+  </si>
+  <si>
+    <t>Rosas, Aldrick</t>
+  </si>
+  <si>
+    <t>Sanders, Jason</t>
+  </si>
+  <si>
+    <t>Seibert, Austin</t>
+  </si>
+  <si>
+    <t>Slye, Joey</t>
+  </si>
+  <si>
+    <t>Succop, Ryan</t>
+  </si>
+  <si>
+    <t>Tucker, Justin</t>
+  </si>
+  <si>
+    <t>Vinatieri, Adam</t>
+  </si>
+  <si>
+    <t>Zuerlein, Greg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pittsburgh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cincinnati </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Bay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New England </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa Bay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffalo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlanta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacksonville </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Orleans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seattle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detroit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleveland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baltimore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indianapolis </t>
+  </si>
+  <si>
+    <t>Gostkowski, Stephen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2991,6 +3171,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3013,14 +3209,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3357,16 +3557,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C946"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A907" workbookViewId="0">
+      <selection activeCell="B987" sqref="B987"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3377,7 +3582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3388,7 +3593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3399,7 +3604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3410,7 +3615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3421,7 +3626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3432,7 +3637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3443,7 +3648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -3454,7 +3659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3465,7 +3670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3476,7 +3681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3487,7 +3692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3498,7 +3703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3509,7 +3714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3520,7 +3725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3531,7 +3736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3542,7 +3747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -3553,7 +3758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3564,7 +3769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -3575,7 +3780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3586,7 +3791,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -3597,7 +3802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -3608,7 +3813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -3619,7 +3824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -3630,7 +3835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -3641,7 +3846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -3652,7 +3857,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -3663,7 +3868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -3674,7 +3879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -3685,7 +3890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -3696,7 +3901,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -3707,7 +3912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -3718,7 +3923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3729,7 +3934,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3740,7 +3945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -3751,7 +3956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -3762,7 +3967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,7 +3978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -3784,7 +3989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
@@ -3795,7 +4000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -3806,7 +4011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
@@ -3817,7 +4022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
@@ -3828,7 +4033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>70</v>
       </c>
@@ -3839,7 +4044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>72</v>
       </c>
@@ -3850,7 +4055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>73</v>
       </c>
@@ -3861,7 +4066,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>75</v>
       </c>
@@ -3872,7 +4077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
@@ -3883,7 +4088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,7 +4099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>78</v>
       </c>
@@ -3905,7 +4110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>79</v>
       </c>
@@ -3916,7 +4121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
@@ -3927,7 +4132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>81</v>
       </c>
@@ -3938,7 +4143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -3949,7 +4154,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>84</v>
       </c>
@@ -3960,7 +4165,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>86</v>
       </c>
@@ -3971,7 +4176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>87</v>
       </c>
@@ -3982,7 +4187,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>88</v>
       </c>
@@ -3993,7 +4198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>89</v>
       </c>
@@ -4004,7 +4209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>91</v>
       </c>
@@ -4015,7 +4220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>92</v>
       </c>
@@ -4026,7 +4231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>93</v>
       </c>
@@ -4037,7 +4242,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
@@ -4048,7 +4253,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
@@ -4059,7 +4264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>96</v>
       </c>
@@ -4070,7 +4275,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
@@ -4081,7 +4286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>98</v>
       </c>
@@ -4092,7 +4297,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>100</v>
       </c>
@@ -4103,7 +4308,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>101</v>
       </c>
@@ -4114,7 +4319,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>102</v>
       </c>
@@ -4125,7 +4330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>103</v>
       </c>
@@ -4136,7 +4341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>105</v>
       </c>
@@ -4147,7 +4352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>106</v>
       </c>
@@ -4158,7 +4363,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>108</v>
       </c>
@@ -4169,7 +4374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>109</v>
       </c>
@@ -4180,7 +4385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>110</v>
       </c>
@@ -4191,7 +4396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>111</v>
       </c>
@@ -4202,7 +4407,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
@@ -4213,7 +4418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>113</v>
       </c>
@@ -4224,7 +4429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>114</v>
       </c>
@@ -4235,7 +4440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>115</v>
       </c>
@@ -4246,7 +4451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>116</v>
       </c>
@@ -4257,7 +4462,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>117</v>
       </c>
@@ -4268,7 +4473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>119</v>
       </c>
@@ -4279,7 +4484,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
@@ -4290,7 +4495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>121</v>
       </c>
@@ -4301,7 +4506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>122</v>
       </c>
@@ -4312,7 +4517,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>123</v>
       </c>
@@ -4323,7 +4528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>124</v>
       </c>
@@ -4334,7 +4539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>125</v>
       </c>
@@ -4345,7 +4550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>126</v>
       </c>
@@ -4356,7 +4561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>127</v>
       </c>
@@ -4367,7 +4572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>128</v>
       </c>
@@ -4378,7 +4583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>129</v>
       </c>
@@ -4389,7 +4594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>130</v>
       </c>
@@ -4400,7 +4605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>131</v>
       </c>
@@ -4411,7 +4616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>132</v>
       </c>
@@ -4422,7 +4627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>133</v>
       </c>
@@ -4433,7 +4638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>134</v>
       </c>
@@ -4444,7 +4649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>135</v>
       </c>
@@ -4455,7 +4660,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>136</v>
       </c>
@@ -4466,7 +4671,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>137</v>
       </c>
@@ -4477,7 +4682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>138</v>
       </c>
@@ -4488,7 +4693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>139</v>
       </c>
@@ -4499,7 +4704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>140</v>
       </c>
@@ -4510,7 +4715,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>141</v>
       </c>
@@ -4521,7 +4726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>142</v>
       </c>
@@ -4532,7 +4737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>143</v>
       </c>
@@ -4543,7 +4748,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>144</v>
       </c>
@@ -4554,7 +4759,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>145</v>
       </c>
@@ -4565,7 +4770,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>146</v>
       </c>
@@ -4576,7 +4781,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>147</v>
       </c>
@@ -4587,7 +4792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>148</v>
       </c>
@@ -4598,7 +4803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>149</v>
       </c>
@@ -4609,7 +4814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>150</v>
       </c>
@@ -4620,7 +4825,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>151</v>
       </c>
@@ -4631,7 +4836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>152</v>
       </c>
@@ -4642,7 +4847,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>153</v>
       </c>
@@ -4653,7 +4858,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>154</v>
       </c>
@@ -4664,7 +4869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>155</v>
       </c>
@@ -4675,7 +4880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>156</v>
       </c>
@@ -4686,7 +4891,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>157</v>
       </c>
@@ -4697,7 +4902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>158</v>
       </c>
@@ -4708,7 +4913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>159</v>
       </c>
@@ -4719,7 +4924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>160</v>
       </c>
@@ -4730,7 +4935,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>161</v>
       </c>
@@ -4741,7 +4946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>163</v>
       </c>
@@ -4752,7 +4957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>164</v>
       </c>
@@ -4763,7 +4968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>165</v>
       </c>
@@ -4774,7 +4979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>166</v>
       </c>
@@ -4785,7 +4990,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>167</v>
       </c>
@@ -4796,7 +5001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>168</v>
       </c>
@@ -4807,7 +5012,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>169</v>
       </c>
@@ -4818,7 +5023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>170</v>
       </c>
@@ -4829,7 +5034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>171</v>
       </c>
@@ -4840,7 +5045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>172</v>
       </c>
@@ -4851,7 +5056,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>173</v>
       </c>
@@ -4862,7 +5067,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>174</v>
       </c>
@@ -4873,7 +5078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>175</v>
       </c>
@@ -4884,7 +5089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>176</v>
       </c>
@@ -4895,7 +5100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>177</v>
       </c>
@@ -4906,7 +5111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>178</v>
       </c>
@@ -4917,7 +5122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>179</v>
       </c>
@@ -4928,7 +5133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>180</v>
       </c>
@@ -4939,7 +5144,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>181</v>
       </c>
@@ -4950,7 +5155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>182</v>
       </c>
@@ -4961,7 +5166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>183</v>
       </c>
@@ -4972,7 +5177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>184</v>
       </c>
@@ -4983,7 +5188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>185</v>
       </c>
@@ -4994,7 +5199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>186</v>
       </c>
@@ -5005,7 +5210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>187</v>
       </c>
@@ -5016,7 +5221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>188</v>
       </c>
@@ -5027,7 +5232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>189</v>
       </c>
@@ -5038,7 +5243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>190</v>
       </c>
@@ -5049,7 +5254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>191</v>
       </c>
@@ -5060,7 +5265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>192</v>
       </c>
@@ -5071,7 +5276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>193</v>
       </c>
@@ -5082,7 +5287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>194</v>
       </c>
@@ -5093,7 +5298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>195</v>
       </c>
@@ -5104,7 +5309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>196</v>
       </c>
@@ -5115,7 +5320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>197</v>
       </c>
@@ -5126,7 +5331,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>198</v>
       </c>
@@ -5137,7 +5342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>199</v>
       </c>
@@ -5148,7 +5353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>200</v>
       </c>
@@ -5159,7 +5364,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>201</v>
       </c>
@@ -5170,7 +5375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>202</v>
       </c>
@@ -5181,7 +5386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>203</v>
       </c>
@@ -5192,7 +5397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>204</v>
       </c>
@@ -5203,7 +5408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>205</v>
       </c>
@@ -5214,7 +5419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>206</v>
       </c>
@@ -5225,7 +5430,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>207</v>
       </c>
@@ -5236,7 +5441,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>208</v>
       </c>
@@ -5247,7 +5452,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>209</v>
       </c>
@@ -5258,7 +5463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>210</v>
       </c>
@@ -5269,7 +5474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>211</v>
       </c>
@@ -5280,7 +5485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>212</v>
       </c>
@@ -5291,7 +5496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>213</v>
       </c>
@@ -5302,7 +5507,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>214</v>
       </c>
@@ -5313,7 +5518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>215</v>
       </c>
@@ -5324,7 +5529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>216</v>
       </c>
@@ -5335,7 +5540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>217</v>
       </c>
@@ -5346,7 +5551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>218</v>
       </c>
@@ -5357,7 +5562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>219</v>
       </c>
@@ -5368,7 +5573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>220</v>
       </c>
@@ -5379,7 +5584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>221</v>
       </c>
@@ -5390,7 +5595,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>222</v>
       </c>
@@ -5401,7 +5606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>223</v>
       </c>
@@ -5412,7 +5617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>224</v>
       </c>
@@ -5423,7 +5628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>225</v>
       </c>
@@ -5434,7 +5639,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>226</v>
       </c>
@@ -5445,7 +5650,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>227</v>
       </c>
@@ -5456,7 +5661,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>228</v>
       </c>
@@ -5467,7 +5672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>229</v>
       </c>
@@ -5478,7 +5683,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>230</v>
       </c>
@@ -5489,7 +5694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>231</v>
       </c>
@@ -5500,7 +5705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>232</v>
       </c>
@@ -5511,7 +5716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>233</v>
       </c>
@@ -5522,7 +5727,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>234</v>
       </c>
@@ -5533,7 +5738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>235</v>
       </c>
@@ -5544,7 +5749,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>236</v>
       </c>
@@ -5555,7 +5760,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>237</v>
       </c>
@@ -5566,7 +5771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>238</v>
       </c>
@@ -5577,7 +5782,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>239</v>
       </c>
@@ -5588,7 +5793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>240</v>
       </c>
@@ -5599,7 +5804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>241</v>
       </c>
@@ -5610,7 +5815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>242</v>
       </c>
@@ -5621,7 +5826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>243</v>
       </c>
@@ -5632,7 +5837,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>244</v>
       </c>
@@ -5643,7 +5848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>245</v>
       </c>
@@ -5654,7 +5859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>246</v>
       </c>
@@ -5665,7 +5870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>247</v>
       </c>
@@ -5676,7 +5881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>248</v>
       </c>
@@ -5687,7 +5892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>249</v>
       </c>
@@ -5698,7 +5903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>250</v>
       </c>
@@ -5709,7 +5914,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>251</v>
       </c>
@@ -5720,7 +5925,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>252</v>
       </c>
@@ -5731,7 +5936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>253</v>
       </c>
@@ -5742,7 +5947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>254</v>
       </c>
@@ -5753,7 +5958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>255</v>
       </c>
@@ -5764,7 +5969,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>256</v>
       </c>
@@ -5775,7 +5980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>257</v>
       </c>
@@ -5786,7 +5991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>258</v>
       </c>
@@ -5797,7 +6002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>259</v>
       </c>
@@ -5808,7 +6013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>260</v>
       </c>
@@ -5819,7 +6024,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>261</v>
       </c>
@@ -5830,7 +6035,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>262</v>
       </c>
@@ -5841,7 +6046,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>263</v>
       </c>
@@ -5852,7 +6057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>264</v>
       </c>
@@ -5863,7 +6068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>265</v>
       </c>
@@ -5874,7 +6079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>266</v>
       </c>
@@ -5885,7 +6090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>267</v>
       </c>
@@ -5896,7 +6101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>268</v>
       </c>
@@ -5907,7 +6112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>269</v>
       </c>
@@ -5918,7 +6123,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>270</v>
       </c>
@@ -5929,7 +6134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>271</v>
       </c>
@@ -5940,7 +6145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>272</v>
       </c>
@@ -5951,7 +6156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>273</v>
       </c>
@@ -5962,7 +6167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>274</v>
       </c>
@@ -5973,7 +6178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>275</v>
       </c>
@@ -5984,7 +6189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>276</v>
       </c>
@@ -5995,7 +6200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>277</v>
       </c>
@@ -6006,7 +6211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>278</v>
       </c>
@@ -6017,7 +6222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>279</v>
       </c>
@@ -6028,7 +6233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>280</v>
       </c>
@@ -6039,7 +6244,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>281</v>
       </c>
@@ -6050,7 +6255,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>282</v>
       </c>
@@ -6061,7 +6266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>283</v>
       </c>
@@ -6072,7 +6277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>284</v>
       </c>
@@ -6083,7 +6288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>285</v>
       </c>
@@ -6094,7 +6299,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>286</v>
       </c>
@@ -6105,7 +6310,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>287</v>
       </c>
@@ -6116,7 +6321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>288</v>
       </c>
@@ -6127,7 +6332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>289</v>
       </c>
@@ -6138,7 +6343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>290</v>
       </c>
@@ -6149,7 +6354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>291</v>
       </c>
@@ -6160,7 +6365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>292</v>
       </c>
@@ -6171,7 +6376,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>293</v>
       </c>
@@ -6182,7 +6387,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>294</v>
       </c>
@@ -6193,7 +6398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>295</v>
       </c>
@@ -6204,7 +6409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>296</v>
       </c>
@@ -6215,7 +6420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>297</v>
       </c>
@@ -6226,7 +6431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>298</v>
       </c>
@@ -6237,7 +6442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>299</v>
       </c>
@@ -6248,7 +6453,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>300</v>
       </c>
@@ -6259,7 +6464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>301</v>
       </c>
@@ -6270,7 +6475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>302</v>
       </c>
@@ -6281,7 +6486,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>303</v>
       </c>
@@ -6292,7 +6497,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>304</v>
       </c>
@@ -6303,7 +6508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>305</v>
       </c>
@@ -6314,7 +6519,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>306</v>
       </c>
@@ -6325,7 +6530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>307</v>
       </c>
@@ -6336,7 +6541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>308</v>
       </c>
@@ -6347,7 +6552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>309</v>
       </c>
@@ -6358,7 +6563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>310</v>
       </c>
@@ -6369,7 +6574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>311</v>
       </c>
@@ -6380,7 +6585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>312</v>
       </c>
@@ -6391,7 +6596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>313</v>
       </c>
@@ -6402,7 +6607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>314</v>
       </c>
@@ -6413,7 +6618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>315</v>
       </c>
@@ -6424,7 +6629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>316</v>
       </c>
@@ -6435,7 +6640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>317</v>
       </c>
@@ -6446,7 +6651,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>318</v>
       </c>
@@ -6457,7 +6662,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>319</v>
       </c>
@@ -6468,7 +6673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>320</v>
       </c>
@@ -6479,7 +6684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>321</v>
       </c>
@@ -6490,7 +6695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>322</v>
       </c>
@@ -6501,7 +6706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>323</v>
       </c>
@@ -6512,7 +6717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>324</v>
       </c>
@@ -6523,7 +6728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>325</v>
       </c>
@@ -6534,7 +6739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>326</v>
       </c>
@@ -6545,7 +6750,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>327</v>
       </c>
@@ -6556,7 +6761,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>328</v>
       </c>
@@ -6567,7 +6772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>329</v>
       </c>
@@ -6578,7 +6783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>330</v>
       </c>
@@ -6589,7 +6794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>331</v>
       </c>
@@ -6600,7 +6805,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>332</v>
       </c>
@@ -6611,7 +6816,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>333</v>
       </c>
@@ -6622,7 +6827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>334</v>
       </c>
@@ -6633,7 +6838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>335</v>
       </c>
@@ -6644,7 +6849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>336</v>
       </c>
@@ -6655,7 +6860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>337</v>
       </c>
@@ -6666,7 +6871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>338</v>
       </c>
@@ -6677,7 +6882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>339</v>
       </c>
@@ -6688,7 +6893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>340</v>
       </c>
@@ -6699,7 +6904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>341</v>
       </c>
@@ -6710,7 +6915,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>342</v>
       </c>
@@ -6721,7 +6926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>343</v>
       </c>
@@ -6732,7 +6937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>344</v>
       </c>
@@ -6743,7 +6948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>345</v>
       </c>
@@ -6754,7 +6959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>346</v>
       </c>
@@ -6765,7 +6970,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>347</v>
       </c>
@@ -6776,7 +6981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>348</v>
       </c>
@@ -6787,7 +6992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>349</v>
       </c>
@@ -6798,7 +7003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>350</v>
       </c>
@@ -6809,7 +7014,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>351</v>
       </c>
@@ -6820,7 +7025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>352</v>
       </c>
@@ -6831,7 +7036,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>353</v>
       </c>
@@ -6842,7 +7047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>354</v>
       </c>
@@ -6853,7 +7058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>355</v>
       </c>
@@ -6864,7 +7069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>356</v>
       </c>
@@ -6875,7 +7080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>357</v>
       </c>
@@ -6886,7 +7091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>358</v>
       </c>
@@ -6897,7 +7102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>359</v>
       </c>
@@ -6908,7 +7113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>360</v>
       </c>
@@ -6919,7 +7124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>361</v>
       </c>
@@ -6930,7 +7135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>362</v>
       </c>
@@ -6941,7 +7146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>363</v>
       </c>
@@ -6952,7 +7157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>364</v>
       </c>
@@ -6963,7 +7168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>365</v>
       </c>
@@ -6974,7 +7179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>366</v>
       </c>
@@ -6985,7 +7190,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>367</v>
       </c>
@@ -6996,7 +7201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>368</v>
       </c>
@@ -7007,7 +7212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>369</v>
       </c>
@@ -7018,7 +7223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>370</v>
       </c>
@@ -7029,7 +7234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>371</v>
       </c>
@@ -7040,7 +7245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>372</v>
       </c>
@@ -7051,7 +7256,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>373</v>
       </c>
@@ -7062,7 +7267,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>374</v>
       </c>
@@ -7073,7 +7278,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>375</v>
       </c>
@@ -7084,7 +7289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>376</v>
       </c>
@@ -7095,7 +7300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>377</v>
       </c>
@@ -7106,7 +7311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>378</v>
       </c>
@@ -7117,7 +7322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>379</v>
       </c>
@@ -7128,7 +7333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>380</v>
       </c>
@@ -7139,7 +7344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>381</v>
       </c>
@@ -7150,7 +7355,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>382</v>
       </c>
@@ -7161,7 +7366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>383</v>
       </c>
@@ -7172,7 +7377,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>384</v>
       </c>
@@ -7183,7 +7388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
         <v>385</v>
       </c>
@@ -7194,7 +7399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
         <v>387</v>
       </c>
@@ -7205,7 +7410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
         <v>388</v>
       </c>
@@ -7216,7 +7421,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
         <v>389</v>
       </c>
@@ -7227,7 +7432,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>390</v>
       </c>
@@ -7238,7 +7443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
         <v>391</v>
       </c>
@@ -7249,7 +7454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
         <v>392</v>
       </c>
@@ -7260,7 +7465,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>393</v>
       </c>
@@ -7271,7 +7476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
         <v>394</v>
       </c>
@@ -7282,7 +7487,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>395</v>
       </c>
@@ -7293,7 +7498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>396</v>
       </c>
@@ -7304,7 +7509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
         <v>397</v>
       </c>
@@ -7315,7 +7520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
         <v>398</v>
       </c>
@@ -7326,7 +7531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
         <v>399</v>
       </c>
@@ -7337,7 +7542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
         <v>400</v>
       </c>
@@ -7348,7 +7553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
         <v>401</v>
       </c>
@@ -7359,7 +7564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>402</v>
       </c>
@@ -7370,7 +7575,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>403</v>
       </c>
@@ -7381,7 +7586,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>404</v>
       </c>
@@ -7392,7 +7597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
         <v>405</v>
       </c>
@@ -7403,7 +7608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>406</v>
       </c>
@@ -7414,7 +7619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
         <v>407</v>
       </c>
@@ -7425,7 +7630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>408</v>
       </c>
@@ -7436,7 +7641,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>409</v>
       </c>
@@ -7447,7 +7652,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>410</v>
       </c>
@@ -7458,7 +7663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
         <v>411</v>
       </c>
@@ -7469,7 +7674,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
         <v>412</v>
       </c>
@@ -7480,7 +7685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>413</v>
       </c>
@@ -7491,7 +7696,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
         <v>414</v>
       </c>
@@ -7502,7 +7707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
         <v>415</v>
       </c>
@@ -7513,7 +7718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
         <v>416</v>
       </c>
@@ -7524,7 +7729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
         <v>417</v>
       </c>
@@ -7535,7 +7740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
         <v>418</v>
       </c>
@@ -7546,7 +7751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
         <v>419</v>
       </c>
@@ -7557,7 +7762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
         <v>420</v>
       </c>
@@ -7568,7 +7773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
         <v>421</v>
       </c>
@@ -7579,7 +7784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
         <v>422</v>
       </c>
@@ -7590,7 +7795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
         <v>423</v>
       </c>
@@ -7601,7 +7806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
         <v>424</v>
       </c>
@@ -7612,7 +7817,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
         <v>425</v>
       </c>
@@ -7623,7 +7828,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
         <v>426</v>
       </c>
@@ -7634,7 +7839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
         <v>427</v>
       </c>
@@ -7645,7 +7850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
         <v>428</v>
       </c>
@@ -7656,7 +7861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
         <v>429</v>
       </c>
@@ -7667,7 +7872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
         <v>430</v>
       </c>
@@ -7678,7 +7883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
         <v>431</v>
       </c>
@@ -7689,7 +7894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
         <v>432</v>
       </c>
@@ -7700,7 +7905,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
         <v>433</v>
       </c>
@@ -7711,7 +7916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
         <v>434</v>
       </c>
@@ -7722,7 +7927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
         <v>435</v>
       </c>
@@ -7733,7 +7938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
         <v>436</v>
       </c>
@@ -7744,7 +7949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
         <v>437</v>
       </c>
@@ -7755,7 +7960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
         <v>438</v>
       </c>
@@ -7766,7 +7971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
         <v>439</v>
       </c>
@@ -7777,7 +7982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
         <v>440</v>
       </c>
@@ -7788,7 +7993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
         <v>441</v>
       </c>
@@ -7799,7 +8004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
         <v>442</v>
       </c>
@@ -7810,7 +8015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
         <v>443</v>
       </c>
@@ -7821,7 +8026,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
         <v>444</v>
       </c>
@@ -7832,7 +8037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
         <v>445</v>
       </c>
@@ -7843,7 +8048,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
         <v>446</v>
       </c>
@@ -7854,7 +8059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
         <v>447</v>
       </c>
@@ -7865,7 +8070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
         <v>448</v>
       </c>
@@ -7876,7 +8081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
         <v>449</v>
       </c>
@@ -7887,7 +8092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
         <v>450</v>
       </c>
@@ -7898,7 +8103,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
         <v>451</v>
       </c>
@@ -7909,7 +8114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
         <v>452</v>
       </c>
@@ -7920,7 +8125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
         <v>453</v>
       </c>
@@ -7931,7 +8136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
         <v>454</v>
       </c>
@@ -7942,7 +8147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
         <v>455</v>
       </c>
@@ -7953,7 +8158,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
         <v>456</v>
       </c>
@@ -7964,7 +8169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
         <v>457</v>
       </c>
@@ -7975,7 +8180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
         <v>458</v>
       </c>
@@ -7986,7 +8191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
         <v>459</v>
       </c>
@@ -7997,7 +8202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
         <v>460</v>
       </c>
@@ -8008,7 +8213,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
         <v>461</v>
       </c>
@@ -8019,7 +8224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
         <v>462</v>
       </c>
@@ -8030,7 +8235,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
         <v>463</v>
       </c>
@@ -8041,7 +8246,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
         <v>464</v>
       </c>
@@ -8052,7 +8257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
         <v>465</v>
       </c>
@@ -8063,7 +8268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
         <v>466</v>
       </c>
@@ -8074,7 +8279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
         <v>467</v>
       </c>
@@ -8085,7 +8290,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
         <v>468</v>
       </c>
@@ -8096,7 +8301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
         <v>469</v>
       </c>
@@ -8107,7 +8312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
         <v>470</v>
       </c>
@@ -8118,7 +8323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
         <v>471</v>
       </c>
@@ -8129,7 +8334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
         <v>472</v>
       </c>
@@ -8140,7 +8345,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
         <v>473</v>
       </c>
@@ -8151,7 +8356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
         <v>474</v>
       </c>
@@ -8162,7 +8367,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
         <v>475</v>
       </c>
@@ -8173,7 +8378,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
         <v>476</v>
       </c>
@@ -8184,7 +8389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
         <v>477</v>
       </c>
@@ -8195,7 +8400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
         <v>478</v>
       </c>
@@ -8206,7 +8411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
         <v>479</v>
       </c>
@@ -8217,7 +8422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
         <v>480</v>
       </c>
@@ -8228,7 +8433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
         <v>481</v>
       </c>
@@ -8239,7 +8444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
         <v>482</v>
       </c>
@@ -8250,7 +8455,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
         <v>483</v>
       </c>
@@ -8261,7 +8466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
         <v>484</v>
       </c>
@@ -8272,7 +8477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
         <v>485</v>
       </c>
@@ -8283,7 +8488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
         <v>486</v>
       </c>
@@ -8294,7 +8499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
         <v>487</v>
       </c>
@@ -8305,7 +8510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
         <v>488</v>
       </c>
@@ -8316,7 +8521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
         <v>489</v>
       </c>
@@ -8327,7 +8532,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
         <v>490</v>
       </c>
@@ -8338,7 +8543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
         <v>491</v>
       </c>
@@ -8349,7 +8554,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
         <v>492</v>
       </c>
@@ -8360,7 +8565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
         <v>493</v>
       </c>
@@ -8371,7 +8576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
         <v>494</v>
       </c>
@@ -8382,7 +8587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
         <v>495</v>
       </c>
@@ -8393,7 +8598,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
         <v>496</v>
       </c>
@@ -8404,7 +8609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
         <v>497</v>
       </c>
@@ -8415,7 +8620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
         <v>498</v>
       </c>
@@ -8426,7 +8631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
         <v>499</v>
       </c>
@@ -8437,7 +8642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
         <v>500</v>
       </c>
@@ -8448,7 +8653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
         <v>501</v>
       </c>
@@ -8459,7 +8664,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
         <v>502</v>
       </c>
@@ -8470,7 +8675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
         <v>503</v>
       </c>
@@ -8481,7 +8686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
         <v>504</v>
       </c>
@@ -8492,7 +8697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
         <v>505</v>
       </c>
@@ -8503,7 +8708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
         <v>506</v>
       </c>
@@ -8514,7 +8719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
         <v>507</v>
       </c>
@@ -8525,7 +8730,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
         <v>508</v>
       </c>
@@ -8536,7 +8741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
         <v>509</v>
       </c>
@@ -8547,7 +8752,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
         <v>510</v>
       </c>
@@ -8558,7 +8763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
         <v>511</v>
       </c>
@@ -8569,7 +8774,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
         <v>512</v>
       </c>
@@ -8580,7 +8785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
         <v>513</v>
       </c>
@@ -8591,7 +8796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
         <v>514</v>
       </c>
@@ -8602,7 +8807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
         <v>515</v>
       </c>
@@ -8613,7 +8818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
         <v>516</v>
       </c>
@@ -8624,7 +8829,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
         <v>517</v>
       </c>
@@ -8635,7 +8840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
         <v>518</v>
       </c>
@@ -8646,7 +8851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
         <v>519</v>
       </c>
@@ -8657,7 +8862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
         <v>520</v>
       </c>
@@ -8668,7 +8873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
         <v>521</v>
       </c>
@@ -8679,7 +8884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
         <v>522</v>
       </c>
@@ -8690,7 +8895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
         <v>523</v>
       </c>
@@ -8701,7 +8906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
         <v>524</v>
       </c>
@@ -8712,7 +8917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
         <v>525</v>
       </c>
@@ -8723,7 +8928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
         <v>526</v>
       </c>
@@ -8734,7 +8939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
         <v>527</v>
       </c>
@@ -8745,7 +8950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
         <v>528</v>
       </c>
@@ -8756,7 +8961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
         <v>529</v>
       </c>
@@ -8767,7 +8972,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
         <v>530</v>
       </c>
@@ -8778,7 +8983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
         <v>531</v>
       </c>
@@ -8789,7 +8994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
         <v>532</v>
       </c>
@@ -8800,7 +9005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
         <v>533</v>
       </c>
@@ -8811,7 +9016,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
         <v>534</v>
       </c>
@@ -8822,7 +9027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3">
       <c r="A497" s="1" t="s">
         <v>535</v>
       </c>
@@ -8833,7 +9038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
         <v>536</v>
       </c>
@@ -8844,7 +9049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
         <v>537</v>
       </c>
@@ -8855,7 +9060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
         <v>538</v>
       </c>
@@ -8866,7 +9071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
         <v>539</v>
       </c>
@@ -8877,7 +9082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
         <v>540</v>
       </c>
@@ -8888,7 +9093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
         <v>541</v>
       </c>
@@ -8899,7 +9104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
         <v>542</v>
       </c>
@@ -8910,7 +9115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
         <v>543</v>
       </c>
@@ -8921,7 +9126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
         <v>544</v>
       </c>
@@ -8932,7 +9137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
         <v>545</v>
       </c>
@@ -8943,7 +9148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
         <v>546</v>
       </c>
@@ -8954,7 +9159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
         <v>547</v>
       </c>
@@ -8965,7 +9170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
         <v>548</v>
       </c>
@@ -8976,7 +9181,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
         <v>549</v>
       </c>
@@ -8987,7 +9192,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
         <v>550</v>
       </c>
@@ -8998,7 +9203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
         <v>551</v>
       </c>
@@ -9009,7 +9214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
         <v>552</v>
       </c>
@@ -9020,7 +9225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
         <v>553</v>
       </c>
@@ -9031,7 +9236,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
         <v>554</v>
       </c>
@@ -9042,7 +9247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
         <v>555</v>
       </c>
@@ -9053,7 +9258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
         <v>556</v>
       </c>
@@ -9064,7 +9269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
         <v>557</v>
       </c>
@@ -9075,7 +9280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
         <v>558</v>
       </c>
@@ -9086,7 +9291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
         <v>559</v>
       </c>
@@ -9097,7 +9302,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
         <v>560</v>
       </c>
@@ -9108,7 +9313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
         <v>561</v>
       </c>
@@ -9119,7 +9324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
         <v>562</v>
       </c>
@@ -9130,7 +9335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
         <v>563</v>
       </c>
@@ -9141,7 +9346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
         <v>564</v>
       </c>
@@ -9152,7 +9357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
         <v>565</v>
       </c>
@@ -9163,7 +9368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
         <v>566</v>
       </c>
@@ -9174,7 +9379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
         <v>567</v>
       </c>
@@ -9185,7 +9390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
         <v>568</v>
       </c>
@@ -9196,7 +9401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
         <v>569</v>
       </c>
@@ -9207,7 +9412,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
         <v>570</v>
       </c>
@@ -9218,7 +9423,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
         <v>571</v>
       </c>
@@ -9229,7 +9434,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
         <v>572</v>
       </c>
@@ -9240,7 +9445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
         <v>573</v>
       </c>
@@ -9251,7 +9456,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
         <v>574</v>
       </c>
@@ -9262,7 +9467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:3">
       <c r="A537" s="1" t="s">
         <v>575</v>
       </c>
@@ -9273,7 +9478,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
         <v>576</v>
       </c>
@@ -9284,7 +9489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
         <v>577</v>
       </c>
@@ -9295,7 +9500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:3">
       <c r="A540" s="1" t="s">
         <v>578</v>
       </c>
@@ -9306,7 +9511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:3">
       <c r="A541" s="1" t="s">
         <v>579</v>
       </c>
@@ -9317,7 +9522,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:3">
       <c r="A542" s="1" t="s">
         <v>580</v>
       </c>
@@ -9328,7 +9533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:3">
       <c r="A543" s="1" t="s">
         <v>581</v>
       </c>
@@ -9339,7 +9544,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3">
       <c r="A544" s="1" t="s">
         <v>582</v>
       </c>
@@ -9350,7 +9555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:3">
       <c r="A545" s="1" t="s">
         <v>583</v>
       </c>
@@ -9361,7 +9566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:3">
       <c r="A546" s="1" t="s">
         <v>584</v>
       </c>
@@ -9372,7 +9577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:3">
       <c r="A547" s="1" t="s">
         <v>585</v>
       </c>
@@ -9383,7 +9588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:3">
       <c r="A548" s="1" t="s">
         <v>586</v>
       </c>
@@ -9394,7 +9599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3">
       <c r="A549" s="1" t="s">
         <v>587</v>
       </c>
@@ -9405,7 +9610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:3">
       <c r="A550" s="1" t="s">
         <v>588</v>
       </c>
@@ -9416,7 +9621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3">
       <c r="A551" s="1" t="s">
         <v>589</v>
       </c>
@@ -9427,7 +9632,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:3">
       <c r="A552" s="1" t="s">
         <v>590</v>
       </c>
@@ -9438,7 +9643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:3">
       <c r="A553" s="1" t="s">
         <v>591</v>
       </c>
@@ -9449,7 +9654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3">
       <c r="A554" s="1" t="s">
         <v>592</v>
       </c>
@@ -9460,7 +9665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3">
       <c r="A555" s="1" t="s">
         <v>593</v>
       </c>
@@ -9471,7 +9676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3">
       <c r="A556" s="1" t="s">
         <v>594</v>
       </c>
@@ -9482,7 +9687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:3">
       <c r="A557" s="1" t="s">
         <v>595</v>
       </c>
@@ -9493,7 +9698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:3">
       <c r="A558" s="1" t="s">
         <v>596</v>
       </c>
@@ -9504,7 +9709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:3">
       <c r="A559" s="1" t="s">
         <v>597</v>
       </c>
@@ -9515,7 +9720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:3">
       <c r="A560" s="1" t="s">
         <v>598</v>
       </c>
@@ -9526,7 +9731,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3">
       <c r="A561" s="1" t="s">
         <v>599</v>
       </c>
@@ -9537,7 +9742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3">
       <c r="A562" s="1" t="s">
         <v>600</v>
       </c>
@@ -9548,7 +9753,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3">
       <c r="A563" s="1" t="s">
         <v>601</v>
       </c>
@@ -9559,7 +9764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3">
       <c r="A564" s="1" t="s">
         <v>602</v>
       </c>
@@ -9570,7 +9775,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3">
       <c r="A565" s="1" t="s">
         <v>603</v>
       </c>
@@ -9581,7 +9786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3">
       <c r="A566" s="1" t="s">
         <v>604</v>
       </c>
@@ -9592,7 +9797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3">
       <c r="A567" s="1" t="s">
         <v>605</v>
       </c>
@@ -9603,7 +9808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3">
       <c r="A568" s="1" t="s">
         <v>606</v>
       </c>
@@ -9614,7 +9819,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3">
       <c r="A569" s="1" t="s">
         <v>607</v>
       </c>
@@ -9625,7 +9830,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3">
       <c r="A570" s="1" t="s">
         <v>608</v>
       </c>
@@ -9636,7 +9841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:3">
       <c r="A571" s="1" t="s">
         <v>609</v>
       </c>
@@ -9647,7 +9852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:3">
       <c r="A572" s="1" t="s">
         <v>610</v>
       </c>
@@ -9658,7 +9863,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:3">
       <c r="A573" s="1" t="s">
         <v>611</v>
       </c>
@@ -9669,7 +9874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:3">
       <c r="A574" s="1" t="s">
         <v>612</v>
       </c>
@@ -9680,7 +9885,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:3">
       <c r="A575" s="1" t="s">
         <v>613</v>
       </c>
@@ -9691,7 +9896,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:3">
       <c r="A576" s="1" t="s">
         <v>614</v>
       </c>
@@ -9702,7 +9907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:3">
       <c r="A577" s="1" t="s">
         <v>615</v>
       </c>
@@ -9713,7 +9918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:3">
       <c r="A578" s="1" t="s">
         <v>616</v>
       </c>
@@ -9724,7 +9929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:3">
       <c r="A579" s="1" t="s">
         <v>617</v>
       </c>
@@ -9735,7 +9940,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:3">
       <c r="A580" s="1" t="s">
         <v>618</v>
       </c>
@@ -9746,7 +9951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:3">
       <c r="A581" s="1" t="s">
         <v>619</v>
       </c>
@@ -9757,7 +9962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:3">
       <c r="A582" s="1" t="s">
         <v>620</v>
       </c>
@@ -9768,7 +9973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:3">
       <c r="A583" s="1" t="s">
         <v>621</v>
       </c>
@@ -9779,7 +9984,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:3">
       <c r="A584" s="1" t="s">
         <v>622</v>
       </c>
@@ -9790,7 +9995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:3">
       <c r="A585" s="1" t="s">
         <v>623</v>
       </c>
@@ -9801,7 +10006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:3">
       <c r="A586" s="1" t="s">
         <v>624</v>
       </c>
@@ -9812,7 +10017,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:3">
       <c r="A587" s="1" t="s">
         <v>625</v>
       </c>
@@ -9823,7 +10028,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:3">
       <c r="A588" s="1" t="s">
         <v>626</v>
       </c>
@@ -9834,7 +10039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:3">
       <c r="A589" s="1" t="s">
         <v>627</v>
       </c>
@@ -9845,7 +10050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:3">
       <c r="A590" s="1" t="s">
         <v>628</v>
       </c>
@@ -9856,7 +10061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:3">
       <c r="A591" s="1" t="s">
         <v>629</v>
       </c>
@@ -9867,7 +10072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:3">
       <c r="A592" s="1" t="s">
         <v>630</v>
       </c>
@@ -9878,7 +10083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:3">
       <c r="A593" s="1" t="s">
         <v>631</v>
       </c>
@@ -9889,7 +10094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:3">
       <c r="A594" s="1" t="s">
         <v>632</v>
       </c>
@@ -9900,7 +10105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:3">
       <c r="A595" s="1" t="s">
         <v>633</v>
       </c>
@@ -9911,7 +10116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:3">
       <c r="A596" s="1" t="s">
         <v>634</v>
       </c>
@@ -9922,7 +10127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:3">
       <c r="A597" s="1" t="s">
         <v>635</v>
       </c>
@@ -9933,7 +10138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:3">
       <c r="A598" s="1" t="s">
         <v>636</v>
       </c>
@@ -9944,7 +10149,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:3">
       <c r="A599" s="1" t="s">
         <v>637</v>
       </c>
@@ -9955,7 +10160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:3">
       <c r="A600" s="1" t="s">
         <v>638</v>
       </c>
@@ -9966,7 +10171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:3">
       <c r="A601" s="1" t="s">
         <v>639</v>
       </c>
@@ -9977,7 +10182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:3">
       <c r="A602" s="1" t="s">
         <v>640</v>
       </c>
@@ -9988,7 +10193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:3">
       <c r="A603" s="1" t="s">
         <v>641</v>
       </c>
@@ -9999,7 +10204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:3">
       <c r="A604" s="1" t="s">
         <v>642</v>
       </c>
@@ -10010,7 +10215,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:3">
       <c r="A605" s="1" t="s">
         <v>643</v>
       </c>
@@ -10021,7 +10226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:3">
       <c r="A606" s="1" t="s">
         <v>644</v>
       </c>
@@ -10032,7 +10237,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:3">
       <c r="A607" s="1" t="s">
         <v>645</v>
       </c>
@@ -10043,7 +10248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:3">
       <c r="A608" s="1" t="s">
         <v>646</v>
       </c>
@@ -10054,7 +10259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:3">
       <c r="A609" s="1" t="s">
         <v>647</v>
       </c>
@@ -10065,7 +10270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:3">
       <c r="A610" s="1" t="s">
         <v>648</v>
       </c>
@@ -10076,7 +10281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:3">
       <c r="A611" s="1" t="s">
         <v>649</v>
       </c>
@@ -10087,7 +10292,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:3">
       <c r="A612" s="1" t="s">
         <v>650</v>
       </c>
@@ -10098,7 +10303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:3">
       <c r="A613" s="1" t="s">
         <v>651</v>
       </c>
@@ -10109,7 +10314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:3">
       <c r="A614" s="1" t="s">
         <v>652</v>
       </c>
@@ -10120,7 +10325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:3">
       <c r="A615" s="1" t="s">
         <v>653</v>
       </c>
@@ -10131,7 +10336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:3">
       <c r="A616" s="1" t="s">
         <v>654</v>
       </c>
@@ -10142,7 +10347,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:3">
       <c r="A617" s="1" t="s">
         <v>655</v>
       </c>
@@ -10153,7 +10358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:3">
       <c r="A618" s="1" t="s">
         <v>656</v>
       </c>
@@ -10164,7 +10369,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:3">
       <c r="A619" s="1" t="s">
         <v>657</v>
       </c>
@@ -10175,7 +10380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:3">
       <c r="A620" s="1" t="s">
         <v>658</v>
       </c>
@@ -10186,7 +10391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:3">
       <c r="A621" s="1" t="s">
         <v>659</v>
       </c>
@@ -10197,7 +10402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:3">
       <c r="A622" s="1" t="s">
         <v>660</v>
       </c>
@@ -10208,7 +10413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:3">
       <c r="A623" s="1" t="s">
         <v>661</v>
       </c>
@@ -10219,7 +10424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:3">
       <c r="A624" s="1" t="s">
         <v>662</v>
       </c>
@@ -10230,7 +10435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:3">
       <c r="A625" s="1" t="s">
         <v>663</v>
       </c>
@@ -10241,7 +10446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
         <v>117</v>
       </c>
@@ -10252,7 +10457,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:3">
       <c r="A627" s="1" t="s">
         <v>664</v>
       </c>
@@ -10263,7 +10468,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:3">
       <c r="A628" s="1" t="s">
         <v>665</v>
       </c>
@@ -10274,7 +10479,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:3">
       <c r="A629" s="1" t="s">
         <v>666</v>
       </c>
@@ -10285,7 +10490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:3">
       <c r="A630" s="1" t="s">
         <v>667</v>
       </c>
@@ -10296,7 +10501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:3">
       <c r="A631" s="1" t="s">
         <v>668</v>
       </c>
@@ -10307,7 +10512,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:3">
       <c r="A632" s="1" t="s">
         <v>669</v>
       </c>
@@ -10318,7 +10523,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:3">
       <c r="A633" s="1" t="s">
         <v>670</v>
       </c>
@@ -10329,7 +10534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:3">
       <c r="A634" s="1" t="s">
         <v>671</v>
       </c>
@@ -10340,7 +10545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:3">
       <c r="A635" s="1" t="s">
         <v>672</v>
       </c>
@@ -10351,7 +10556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:3">
       <c r="A636" s="1" t="s">
         <v>673</v>
       </c>
@@ -10362,7 +10567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:3">
       <c r="A637" s="1" t="s">
         <v>674</v>
       </c>
@@ -10373,7 +10578,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:3">
       <c r="A638" s="1" t="s">
         <v>675</v>
       </c>
@@ -10384,7 +10589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:3">
       <c r="A639" s="1" t="s">
         <v>676</v>
       </c>
@@ -10395,7 +10600,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:3">
       <c r="A640" s="1" t="s">
         <v>677</v>
       </c>
@@ -10406,7 +10611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:3">
       <c r="A641" s="1" t="s">
         <v>678</v>
       </c>
@@ -10417,7 +10622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:3">
       <c r="A642" s="1" t="s">
         <v>679</v>
       </c>
@@ -10428,7 +10633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:3">
       <c r="A643" s="1" t="s">
         <v>680</v>
       </c>
@@ -10439,7 +10644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:3">
       <c r="A644" s="1" t="s">
         <v>681</v>
       </c>
@@ -10450,7 +10655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:3">
       <c r="A645" s="1" t="s">
         <v>682</v>
       </c>
@@ -10461,7 +10666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:3">
       <c r="A646" s="1" t="s">
         <v>683</v>
       </c>
@@ -10472,7 +10677,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:3">
       <c r="A647" s="1" t="s">
         <v>684</v>
       </c>
@@ -10483,7 +10688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:3">
       <c r="A648" s="1" t="s">
         <v>685</v>
       </c>
@@ -10494,7 +10699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:3">
       <c r="A649" s="1" t="s">
         <v>686</v>
       </c>
@@ -10505,7 +10710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:3">
       <c r="A650" s="1" t="s">
         <v>687</v>
       </c>
@@ -10516,7 +10721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:3">
       <c r="A651" s="1" t="s">
         <v>688</v>
       </c>
@@ -10527,7 +10732,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:3">
       <c r="A652" s="1" t="s">
         <v>689</v>
       </c>
@@ -10538,7 +10743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:3">
       <c r="A653" s="1" t="s">
         <v>690</v>
       </c>
@@ -10549,7 +10754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:3">
       <c r="A654" s="1" t="s">
         <v>691</v>
       </c>
@@ -10560,7 +10765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:3">
       <c r="A655" s="1" t="s">
         <v>692</v>
       </c>
@@ -10571,7 +10776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:3">
       <c r="A656" s="1" t="s">
         <v>693</v>
       </c>
@@ -10582,7 +10787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:3">
       <c r="A657" s="1" t="s">
         <v>694</v>
       </c>
@@ -10593,7 +10798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:3">
       <c r="A658" s="1" t="s">
         <v>695</v>
       </c>
@@ -10604,7 +10809,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:3">
       <c r="A659" s="1" t="s">
         <v>696</v>
       </c>
@@ -10615,7 +10820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:3">
       <c r="A660" s="1" t="s">
         <v>697</v>
       </c>
@@ -10626,7 +10831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:3">
       <c r="A661" s="1" t="s">
         <v>698</v>
       </c>
@@ -10637,7 +10842,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:3">
       <c r="A662" s="1" t="s">
         <v>699</v>
       </c>
@@ -10648,7 +10853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:3">
       <c r="A663" s="1" t="s">
         <v>700</v>
       </c>
@@ -10659,7 +10864,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:3">
       <c r="A664" s="1" t="s">
         <v>701</v>
       </c>
@@ -10670,7 +10875,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:3">
       <c r="A665" s="1" t="s">
         <v>702</v>
       </c>
@@ -10681,7 +10886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:3">
       <c r="A666" s="1" t="s">
         <v>703</v>
       </c>
@@ -10692,7 +10897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:3">
       <c r="A667" s="1" t="s">
         <v>704</v>
       </c>
@@ -10703,7 +10908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:3">
       <c r="A668" s="1" t="s">
         <v>705</v>
       </c>
@@ -10714,7 +10919,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:3">
       <c r="A669" s="1" t="s">
         <v>706</v>
       </c>
@@ -10725,7 +10930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:3">
       <c r="A670" s="1" t="s">
         <v>707</v>
       </c>
@@ -10736,7 +10941,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:3">
       <c r="A671" s="1" t="s">
         <v>708</v>
       </c>
@@ -10747,7 +10952,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:3">
       <c r="A672" s="1" t="s">
         <v>709</v>
       </c>
@@ -10758,7 +10963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:3">
       <c r="A673" s="1" t="s">
         <v>710</v>
       </c>
@@ -10769,7 +10974,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:3">
       <c r="A674" s="1" t="s">
         <v>711</v>
       </c>
@@ -10780,7 +10985,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:3">
       <c r="A675" s="1" t="s">
         <v>712</v>
       </c>
@@ -10791,7 +10996,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:3">
       <c r="A676" s="1" t="s">
         <v>713</v>
       </c>
@@ -10802,7 +11007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:3">
       <c r="A677" s="1" t="s">
         <v>714</v>
       </c>
@@ -10813,7 +11018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:3">
       <c r="A678" s="1" t="s">
         <v>715</v>
       </c>
@@ -10824,7 +11029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:3">
       <c r="A679" s="1" t="s">
         <v>716</v>
       </c>
@@ -10835,7 +11040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:3">
       <c r="A680" s="1" t="s">
         <v>717</v>
       </c>
@@ -10846,7 +11051,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:3">
       <c r="A681" s="1" t="s">
         <v>718</v>
       </c>
@@ -10857,7 +11062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:3">
       <c r="A682" s="1" t="s">
         <v>719</v>
       </c>
@@ -10868,7 +11073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:3">
       <c r="A683" s="1" t="s">
         <v>720</v>
       </c>
@@ -10879,7 +11084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:3">
       <c r="A684" s="1" t="s">
         <v>721</v>
       </c>
@@ -10890,7 +11095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:3">
       <c r="A685" s="1" t="s">
         <v>722</v>
       </c>
@@ -10901,7 +11106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:3">
       <c r="A686" s="1" t="s">
         <v>723</v>
       </c>
@@ -10912,7 +11117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:3">
       <c r="A687" s="1" t="s">
         <v>724</v>
       </c>
@@ -10923,7 +11128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:3">
       <c r="A688" s="1" t="s">
         <v>725</v>
       </c>
@@ -10934,7 +11139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:3">
       <c r="A689" s="1" t="s">
         <v>726</v>
       </c>
@@ -10945,7 +11150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:3">
       <c r="A690" s="1" t="s">
         <v>727</v>
       </c>
@@ -10956,7 +11161,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:3">
       <c r="A691" s="1" t="s">
         <v>728</v>
       </c>
@@ -10967,7 +11172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:3">
       <c r="A692" s="1" t="s">
         <v>729</v>
       </c>
@@ -10978,7 +11183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:3">
       <c r="A693" s="1" t="s">
         <v>730</v>
       </c>
@@ -10989,7 +11194,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:3">
       <c r="A694" s="1" t="s">
         <v>731</v>
       </c>
@@ -11000,7 +11205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:3">
       <c r="A695" s="1" t="s">
         <v>732</v>
       </c>
@@ -11011,7 +11216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:3">
       <c r="A696" s="1" t="s">
         <v>733</v>
       </c>
@@ -11022,7 +11227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:3">
       <c r="A697" s="1" t="s">
         <v>734</v>
       </c>
@@ -11033,7 +11238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:3">
       <c r="A698" s="1" t="s">
         <v>735</v>
       </c>
@@ -11044,7 +11249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:3">
       <c r="A699" s="1" t="s">
         <v>736</v>
       </c>
@@ -11055,7 +11260,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:3">
       <c r="A700" s="1" t="s">
         <v>355</v>
       </c>
@@ -11066,7 +11271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:3">
       <c r="A701" s="1" t="s">
         <v>737</v>
       </c>
@@ -11077,7 +11282,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:3">
       <c r="A702" s="1" t="s">
         <v>738</v>
       </c>
@@ -11088,7 +11293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:3">
       <c r="A703" s="1" t="s">
         <v>739</v>
       </c>
@@ -11099,7 +11304,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:3">
       <c r="A704" s="1" t="s">
         <v>740</v>
       </c>
@@ -11110,7 +11315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:3">
       <c r="A705" s="1" t="s">
         <v>741</v>
       </c>
@@ -11121,7 +11326,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:3">
       <c r="A706" s="1" t="s">
         <v>742</v>
       </c>
@@ -11132,7 +11337,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:3">
       <c r="A707" s="1" t="s">
         <v>743</v>
       </c>
@@ -11143,7 +11348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:3">
       <c r="A708" s="1" t="s">
         <v>744</v>
       </c>
@@ -11154,7 +11359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:3">
       <c r="A709" s="1" t="s">
         <v>745</v>
       </c>
@@ -11165,7 +11370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:3">
       <c r="A710" s="1" t="s">
         <v>746</v>
       </c>
@@ -11176,7 +11381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:3">
       <c r="A711" s="1" t="s">
         <v>747</v>
       </c>
@@ -11187,7 +11392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:3">
       <c r="A712" s="1" t="s">
         <v>748</v>
       </c>
@@ -11198,7 +11403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:3">
       <c r="A713" s="1" t="s">
         <v>749</v>
       </c>
@@ -11209,7 +11414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:3">
       <c r="A714" s="1" t="s">
         <v>750</v>
       </c>
@@ -11220,7 +11425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:3">
       <c r="A715" s="1" t="s">
         <v>751</v>
       </c>
@@ -11231,7 +11436,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:3">
       <c r="A716" s="1" t="s">
         <v>752</v>
       </c>
@@ -11242,7 +11447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:3">
       <c r="A717" s="1" t="s">
         <v>753</v>
       </c>
@@ -11253,7 +11458,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:3">
       <c r="A718" s="1" t="s">
         <v>754</v>
       </c>
@@ -11264,7 +11469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:3">
       <c r="A719" s="1" t="s">
         <v>755</v>
       </c>
@@ -11275,7 +11480,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:3">
       <c r="A720" s="1" t="s">
         <v>756</v>
       </c>
@@ -11286,7 +11491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:3">
       <c r="A721" s="1" t="s">
         <v>757</v>
       </c>
@@ -11297,7 +11502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:3">
       <c r="A722" s="1" t="s">
         <v>758</v>
       </c>
@@ -11308,7 +11513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:3">
       <c r="A723" s="1" t="s">
         <v>759</v>
       </c>
@@ -11319,7 +11524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:3">
       <c r="A724" s="1" t="s">
         <v>760</v>
       </c>
@@ -11330,7 +11535,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:3">
       <c r="A725" s="1" t="s">
         <v>761</v>
       </c>
@@ -11341,7 +11546,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:3">
       <c r="A726" s="1" t="s">
         <v>762</v>
       </c>
@@ -11352,7 +11557,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:3">
       <c r="A727" s="1" t="s">
         <v>763</v>
       </c>
@@ -11363,7 +11568,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:3">
       <c r="A728" s="1" t="s">
         <v>764</v>
       </c>
@@ -11374,7 +11579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:3">
       <c r="A729" s="1" t="s">
         <v>765</v>
       </c>
@@ -11385,7 +11590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:3">
       <c r="A730" s="1" t="s">
         <v>766</v>
       </c>
@@ -11396,7 +11601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:3">
       <c r="A731" s="1" t="s">
         <v>767</v>
       </c>
@@ -11407,7 +11612,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:3">
       <c r="A732" s="1" t="s">
         <v>768</v>
       </c>
@@ -11418,7 +11623,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:3">
       <c r="A733" s="1" t="s">
         <v>769</v>
       </c>
@@ -11429,7 +11634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:3">
       <c r="A734" s="1" t="s">
         <v>770</v>
       </c>
@@ -11440,7 +11645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:3">
       <c r="A735" s="1" t="s">
         <v>771</v>
       </c>
@@ -11451,7 +11656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:3">
       <c r="A736" s="1" t="s">
         <v>772</v>
       </c>
@@ -11462,7 +11667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:3">
       <c r="A737" s="1" t="s">
         <v>773</v>
       </c>
@@ -11473,7 +11678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:3">
       <c r="A738" s="1" t="s">
         <v>774</v>
       </c>
@@ -11484,7 +11689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:3">
       <c r="A739" s="1" t="s">
         <v>775</v>
       </c>
@@ -11495,7 +11700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:3">
       <c r="A740" s="1" t="s">
         <v>776</v>
       </c>
@@ -11506,7 +11711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:3">
       <c r="A741" s="1" t="s">
         <v>777</v>
       </c>
@@ -11517,7 +11722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:3">
       <c r="A742" s="1" t="s">
         <v>778</v>
       </c>
@@ -11528,7 +11733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:3">
       <c r="A743" s="1" t="s">
         <v>779</v>
       </c>
@@ -11539,7 +11744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:3">
       <c r="A744" s="1" t="s">
         <v>780</v>
       </c>
@@ -11550,7 +11755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:3">
       <c r="A745" s="1" t="s">
         <v>781</v>
       </c>
@@ -11561,7 +11766,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:3">
       <c r="A746" s="1" t="s">
         <v>782</v>
       </c>
@@ -11572,7 +11777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:3">
       <c r="A747" s="1" t="s">
         <v>783</v>
       </c>
@@ -11583,7 +11788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:3">
       <c r="A748" s="1" t="s">
         <v>784</v>
       </c>
@@ -11594,7 +11799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:3">
       <c r="A749" s="1" t="s">
         <v>785</v>
       </c>
@@ -11605,7 +11810,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:3">
       <c r="A750" s="1" t="s">
         <v>787</v>
       </c>
@@ -11616,7 +11821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:3">
       <c r="A751" s="1" t="s">
         <v>788</v>
       </c>
@@ -11627,7 +11832,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:3">
       <c r="A752" s="1" t="s">
         <v>789</v>
       </c>
@@ -11638,7 +11843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:3">
       <c r="A753" s="1" t="s">
         <v>790</v>
       </c>
@@ -11649,7 +11854,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:3">
       <c r="A754" s="1" t="s">
         <v>791</v>
       </c>
@@ -11660,7 +11865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:3">
       <c r="A755" s="1" t="s">
         <v>792</v>
       </c>
@@ -11671,7 +11876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:3">
       <c r="A756" s="1" t="s">
         <v>793</v>
       </c>
@@ -11682,7 +11887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:3">
       <c r="A757" s="1" t="s">
         <v>794</v>
       </c>
@@ -11693,7 +11898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:3">
       <c r="A758" s="1" t="s">
         <v>795</v>
       </c>
@@ -11704,7 +11909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:3">
       <c r="A759" s="1" t="s">
         <v>796</v>
       </c>
@@ -11715,7 +11920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:3">
       <c r="A760" s="1" t="s">
         <v>797</v>
       </c>
@@ -11726,7 +11931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:3">
       <c r="A761" s="1" t="s">
         <v>798</v>
       </c>
@@ -11737,7 +11942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:3">
       <c r="A762" s="1" t="s">
         <v>799</v>
       </c>
@@ -11748,7 +11953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:3">
       <c r="A763" s="1" t="s">
         <v>800</v>
       </c>
@@ -11759,7 +11964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:3">
       <c r="A764" s="1" t="s">
         <v>801</v>
       </c>
@@ -11770,7 +11975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:3">
       <c r="A765" s="1" t="s">
         <v>802</v>
       </c>
@@ -11781,7 +11986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:3">
       <c r="A766" s="1" t="s">
         <v>803</v>
       </c>
@@ -11792,7 +11997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:3">
       <c r="A767" s="1" t="s">
         <v>804</v>
       </c>
@@ -11803,7 +12008,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:3">
       <c r="A768" s="1" t="s">
         <v>805</v>
       </c>
@@ -11814,7 +12019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:3">
       <c r="A769" s="1" t="s">
         <v>806</v>
       </c>
@@ -11825,7 +12030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:3">
       <c r="A770" s="1" t="s">
         <v>807</v>
       </c>
@@ -11836,7 +12041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:3">
       <c r="A771" s="1" t="s">
         <v>808</v>
       </c>
@@ -11847,7 +12052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:3">
       <c r="A772" s="1" t="s">
         <v>809</v>
       </c>
@@ -11858,7 +12063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:3">
       <c r="A773" s="1" t="s">
         <v>810</v>
       </c>
@@ -11869,7 +12074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:3">
       <c r="A774" s="1" t="s">
         <v>811</v>
       </c>
@@ -11880,7 +12085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:3">
       <c r="A775" s="1" t="s">
         <v>812</v>
       </c>
@@ -11891,7 +12096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:3">
       <c r="A776" s="1" t="s">
         <v>813</v>
       </c>
@@ -11902,7 +12107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:3">
       <c r="A777" s="1" t="s">
         <v>814</v>
       </c>
@@ -11913,7 +12118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:3">
       <c r="A778" s="1" t="s">
         <v>815</v>
       </c>
@@ -11924,7 +12129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:3">
       <c r="A779" s="1" t="s">
         <v>816</v>
       </c>
@@ -11935,7 +12140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:3">
       <c r="A780" s="1" t="s">
         <v>817</v>
       </c>
@@ -11946,7 +12151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:3">
       <c r="A781" s="1" t="s">
         <v>818</v>
       </c>
@@ -11957,7 +12162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:3">
       <c r="A782" s="1" t="s">
         <v>819</v>
       </c>
@@ -11968,7 +12173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:3">
       <c r="A783" s="1" t="s">
         <v>820</v>
       </c>
@@ -11979,7 +12184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:3">
       <c r="A784" s="1" t="s">
         <v>821</v>
       </c>
@@ -11990,7 +12195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:3">
       <c r="A785" s="1" t="s">
         <v>822</v>
       </c>
@@ -12001,7 +12206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:3">
       <c r="A786" s="1" t="s">
         <v>823</v>
       </c>
@@ -12012,7 +12217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:3">
       <c r="A787" s="1" t="s">
         <v>824</v>
       </c>
@@ -12023,7 +12228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:3">
       <c r="A788" s="1" t="s">
         <v>825</v>
       </c>
@@ -12034,7 +12239,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:3">
       <c r="A789" s="1" t="s">
         <v>826</v>
       </c>
@@ -12045,7 +12250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:3">
       <c r="A790" s="1" t="s">
         <v>827</v>
       </c>
@@ -12056,7 +12261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:3">
       <c r="A791" s="1" t="s">
         <v>828</v>
       </c>
@@ -12067,7 +12272,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:3">
       <c r="A792" s="1" t="s">
         <v>829</v>
       </c>
@@ -12078,7 +12283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:3">
       <c r="A793" s="1" t="s">
         <v>830</v>
       </c>
@@ -12089,7 +12294,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:3">
       <c r="A794" s="1" t="s">
         <v>831</v>
       </c>
@@ -12100,7 +12305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:3">
       <c r="A795" s="1" t="s">
         <v>832</v>
       </c>
@@ -12111,7 +12316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:3">
       <c r="A796" s="1" t="s">
         <v>833</v>
       </c>
@@ -12122,7 +12327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:3">
       <c r="A797" s="1" t="s">
         <v>834</v>
       </c>
@@ -12133,7 +12338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:3">
       <c r="A798" s="1" t="s">
         <v>835</v>
       </c>
@@ -12144,7 +12349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:3">
       <c r="A799" s="1" t="s">
         <v>836</v>
       </c>
@@ -12155,7 +12360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:3">
       <c r="A800" s="1" t="s">
         <v>837</v>
       </c>
@@ -12166,7 +12371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:3">
       <c r="A801" s="1" t="s">
         <v>838</v>
       </c>
@@ -12177,7 +12382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:3">
       <c r="A802" s="1" t="s">
         <v>839</v>
       </c>
@@ -12188,7 +12393,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:3">
       <c r="A803" s="1" t="s">
         <v>840</v>
       </c>
@@ -12199,7 +12404,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:3">
       <c r="A804" s="1" t="s">
         <v>841</v>
       </c>
@@ -12210,7 +12415,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:3">
       <c r="A805" s="1" t="s">
         <v>842</v>
       </c>
@@ -12221,7 +12426,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:3">
       <c r="A806" s="1" t="s">
         <v>843</v>
       </c>
@@ -12232,7 +12437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:3">
       <c r="A807" s="1" t="s">
         <v>844</v>
       </c>
@@ -12243,7 +12448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:3">
       <c r="A808" s="1" t="s">
         <v>845</v>
       </c>
@@ -12254,7 +12459,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:3">
       <c r="A809" s="1" t="s">
         <v>846</v>
       </c>
@@ -12265,7 +12470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:3">
       <c r="A810" s="1" t="s">
         <v>847</v>
       </c>
@@ -12276,7 +12481,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:3">
       <c r="A811" s="1" t="s">
         <v>848</v>
       </c>
@@ -12287,7 +12492,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:3">
       <c r="A812" s="1" t="s">
         <v>849</v>
       </c>
@@ -12298,7 +12503,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:3">
       <c r="A813" s="1" t="s">
         <v>850</v>
       </c>
@@ -12309,7 +12514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:3">
       <c r="A814" s="1" t="s">
         <v>851</v>
       </c>
@@ -12320,7 +12525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:3">
       <c r="A815" s="1" t="s">
         <v>852</v>
       </c>
@@ -12331,7 +12536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:3">
       <c r="A816" s="1" t="s">
         <v>853</v>
       </c>
@@ -12342,7 +12547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:3">
       <c r="A817" s="1" t="s">
         <v>854</v>
       </c>
@@ -12353,7 +12558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:3">
       <c r="A818" s="1" t="s">
         <v>855</v>
       </c>
@@ -12364,7 +12569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:3">
       <c r="A819" s="1" t="s">
         <v>856</v>
       </c>
@@ -12375,7 +12580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:3">
       <c r="A820" s="1" t="s">
         <v>857</v>
       </c>
@@ -12386,7 +12591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:3">
       <c r="A821" s="1" t="s">
         <v>858</v>
       </c>
@@ -12397,7 +12602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:3">
       <c r="A822" s="1" t="s">
         <v>859</v>
       </c>
@@ -12408,7 +12613,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:3">
       <c r="A823" s="1" t="s">
         <v>860</v>
       </c>
@@ -12419,7 +12624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:3">
       <c r="A824" s="1" t="s">
         <v>69</v>
       </c>
@@ -12430,7 +12635,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:3">
       <c r="A825" s="1" t="s">
         <v>861</v>
       </c>
@@ -12441,7 +12646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:3">
       <c r="A826" s="1" t="s">
         <v>862</v>
       </c>
@@ -12452,7 +12657,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:3">
       <c r="A827" s="1" t="s">
         <v>863</v>
       </c>
@@ -12463,7 +12668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:3">
       <c r="A828" s="1" t="s">
         <v>864</v>
       </c>
@@ -12474,7 +12679,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:3">
       <c r="A829" s="1" t="s">
         <v>865</v>
       </c>
@@ -12485,7 +12690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:3">
       <c r="A830" s="1" t="s">
         <v>866</v>
       </c>
@@ -12496,7 +12701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:3">
       <c r="A831" s="1" t="s">
         <v>867</v>
       </c>
@@ -12507,7 +12712,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:3">
       <c r="A832" s="1" t="s">
         <v>868</v>
       </c>
@@ -12518,7 +12723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:3">
       <c r="A833" s="1" t="s">
         <v>869</v>
       </c>
@@ -12529,7 +12734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:3">
       <c r="A834" s="1" t="s">
         <v>870</v>
       </c>
@@ -12540,7 +12745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:3">
       <c r="A835" s="1" t="s">
         <v>871</v>
       </c>
@@ -12551,7 +12756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:3">
       <c r="A836" s="1" t="s">
         <v>872</v>
       </c>
@@ -12562,7 +12767,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:3">
       <c r="A837" s="1" t="s">
         <v>873</v>
       </c>
@@ -12573,7 +12778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:3">
       <c r="A838" s="1" t="s">
         <v>874</v>
       </c>
@@ -12584,7 +12789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:3">
       <c r="A839" s="1" t="s">
         <v>875</v>
       </c>
@@ -12595,7 +12800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:3">
       <c r="A840" s="1" t="s">
         <v>876</v>
       </c>
@@ -12606,7 +12811,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:3">
       <c r="A841" s="1" t="s">
         <v>877</v>
       </c>
@@ -12617,7 +12822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:3">
       <c r="A842" s="1" t="s">
         <v>878</v>
       </c>
@@ -12628,7 +12833,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:3">
       <c r="A843" s="1" t="s">
         <v>879</v>
       </c>
@@ -12639,7 +12844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:3">
       <c r="A844" s="1" t="s">
         <v>880</v>
       </c>
@@ -12650,7 +12855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:3">
       <c r="A845" s="1" t="s">
         <v>881</v>
       </c>
@@ -12661,7 +12866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:3">
       <c r="A846" s="1" t="s">
         <v>882</v>
       </c>
@@ -12672,7 +12877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:3">
       <c r="A847" s="1" t="s">
         <v>883</v>
       </c>
@@ -12683,7 +12888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:3">
       <c r="A848" s="1" t="s">
         <v>884</v>
       </c>
@@ -12694,7 +12899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:3">
       <c r="A849" s="1" t="s">
         <v>885</v>
       </c>
@@ -12705,7 +12910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:3">
       <c r="A850" s="1" t="s">
         <v>886</v>
       </c>
@@ -12716,7 +12921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:3">
       <c r="A851" s="1" t="s">
         <v>887</v>
       </c>
@@ -12727,7 +12932,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:3">
       <c r="A852" s="1" t="s">
         <v>888</v>
       </c>
@@ -12738,7 +12943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:3">
       <c r="A853" s="1" t="s">
         <v>889</v>
       </c>
@@ -12749,7 +12954,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:3">
       <c r="A854" s="1" t="s">
         <v>890</v>
       </c>
@@ -12760,7 +12965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:3">
       <c r="A855" s="1" t="s">
         <v>891</v>
       </c>
@@ -12771,7 +12976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:3">
       <c r="A856" s="1" t="s">
         <v>892</v>
       </c>
@@ -12782,7 +12987,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:3">
       <c r="A857" s="1" t="s">
         <v>893</v>
       </c>
@@ -12793,7 +12998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:3">
       <c r="A858" s="1" t="s">
         <v>894</v>
       </c>
@@ -12804,7 +13009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:3">
       <c r="A859" s="1" t="s">
         <v>895</v>
       </c>
@@ -12815,7 +13020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:3">
       <c r="A860" s="1" t="s">
         <v>896</v>
       </c>
@@ -12826,7 +13031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:3">
       <c r="A861" s="1" t="s">
         <v>897</v>
       </c>
@@ -12837,7 +13042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:3">
       <c r="A862" s="1" t="s">
         <v>898</v>
       </c>
@@ -12848,7 +13053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:3">
       <c r="A863" s="1" t="s">
         <v>899</v>
       </c>
@@ -12859,7 +13064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:3">
       <c r="A864" s="1" t="s">
         <v>900</v>
       </c>
@@ -12870,7 +13075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:3">
       <c r="A865" s="1" t="s">
         <v>901</v>
       </c>
@@ -12881,7 +13086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:3">
       <c r="A866" s="1" t="s">
         <v>902</v>
       </c>
@@ -12892,7 +13097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:3">
       <c r="A867" s="1" t="s">
         <v>903</v>
       </c>
@@ -12903,7 +13108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:3">
       <c r="A868" s="1" t="s">
         <v>904</v>
       </c>
@@ -12914,7 +13119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:3">
       <c r="A869" s="1" t="s">
         <v>905</v>
       </c>
@@ -12925,7 +13130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:3">
       <c r="A870" s="1" t="s">
         <v>906</v>
       </c>
@@ -12936,7 +13141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:3">
       <c r="A871" s="1" t="s">
         <v>907</v>
       </c>
@@ -12947,7 +13152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:3">
       <c r="A872" s="1" t="s">
         <v>908</v>
       </c>
@@ -12958,7 +13163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:3">
       <c r="A873" s="1" t="s">
         <v>909</v>
       </c>
@@ -12969,7 +13174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:3">
       <c r="A874" s="1" t="s">
         <v>910</v>
       </c>
@@ -12980,7 +13185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:3">
       <c r="A875" s="1" t="s">
         <v>911</v>
       </c>
@@ -12991,7 +13196,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:3">
       <c r="A876" s="1" t="s">
         <v>912</v>
       </c>
@@ -13002,7 +13207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:3">
       <c r="A877" s="1" t="s">
         <v>913</v>
       </c>
@@ -13013,7 +13218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:3">
       <c r="A878" s="1" t="s">
         <v>914</v>
       </c>
@@ -13024,7 +13229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:3">
       <c r="A879" s="1" t="s">
         <v>915</v>
       </c>
@@ -13035,7 +13240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:3">
       <c r="A880" s="1" t="s">
         <v>916</v>
       </c>
@@ -13046,7 +13251,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:3">
       <c r="A881" s="1" t="s">
         <v>917</v>
       </c>
@@ -13057,7 +13262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:3">
       <c r="A882" s="1" t="s">
         <v>918</v>
       </c>
@@ -13068,7 +13273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:3">
       <c r="A883" s="1" t="s">
         <v>919</v>
       </c>
@@ -13079,7 +13284,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:3">
       <c r="A884" s="1" t="s">
         <v>920</v>
       </c>
@@ -13090,7 +13295,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:3">
       <c r="A885" s="1" t="s">
         <v>921</v>
       </c>
@@ -13101,7 +13306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:3">
       <c r="A886" s="1" t="s">
         <v>922</v>
       </c>
@@ -13112,7 +13317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:3">
       <c r="A887" s="1" t="s">
         <v>923</v>
       </c>
@@ -13123,7 +13328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:3">
       <c r="A888" s="1" t="s">
         <v>924</v>
       </c>
@@ -13134,7 +13339,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:3">
       <c r="A889" s="1" t="s">
         <v>925</v>
       </c>
@@ -13145,7 +13350,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:3">
       <c r="A890" s="1" t="s">
         <v>926</v>
       </c>
@@ -13156,7 +13361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:3">
       <c r="A891" s="1" t="s">
         <v>927</v>
       </c>
@@ -13167,7 +13372,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:3">
       <c r="A892" s="1" t="s">
         <v>928</v>
       </c>
@@ -13178,7 +13383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:3">
       <c r="A893" s="1" t="s">
         <v>929</v>
       </c>
@@ -13189,7 +13394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:3">
       <c r="A894" s="1" t="s">
         <v>930</v>
       </c>
@@ -13200,7 +13405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:3">
       <c r="A895" s="1" t="s">
         <v>931</v>
       </c>
@@ -13211,7 +13416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:3">
       <c r="A896" s="1" t="s">
         <v>932</v>
       </c>
@@ -13222,7 +13427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:3">
       <c r="A897" s="1" t="s">
         <v>933</v>
       </c>
@@ -13233,7 +13438,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:3">
       <c r="A898" s="1" t="s">
         <v>934</v>
       </c>
@@ -13244,7 +13449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:3">
       <c r="A899" s="1" t="s">
         <v>935</v>
       </c>
@@ -13255,7 +13460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:3">
       <c r="A900" s="1" t="s">
         <v>936</v>
       </c>
@@ -13266,7 +13471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:3">
       <c r="A901" s="1" t="s">
         <v>937</v>
       </c>
@@ -13277,7 +13482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:3">
       <c r="A902" s="1" t="s">
         <v>938</v>
       </c>
@@ -13288,7 +13493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:3">
       <c r="A903" s="1" t="s">
         <v>939</v>
       </c>
@@ -13299,7 +13504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:3">
       <c r="A904" s="1" t="s">
         <v>940</v>
       </c>
@@ -13310,7 +13515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:3">
       <c r="A905" s="1" t="s">
         <v>941</v>
       </c>
@@ -13321,7 +13526,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:3">
       <c r="A906" s="1" t="s">
         <v>942</v>
       </c>
@@ -13332,7 +13537,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:3">
       <c r="A907" s="1" t="s">
         <v>943</v>
       </c>
@@ -13343,7 +13548,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:3">
       <c r="A908" s="1" t="s">
         <v>944</v>
       </c>
@@ -13354,7 +13559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:3">
       <c r="A909" s="1" t="s">
         <v>945</v>
       </c>
@@ -13365,7 +13570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:3">
       <c r="A910" s="1" t="s">
         <v>946</v>
       </c>
@@ -13376,7 +13581,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:3">
       <c r="A911" s="1" t="s">
         <v>947</v>
       </c>
@@ -13387,7 +13592,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:3">
       <c r="A912" s="1" t="s">
         <v>948</v>
       </c>
@@ -13398,7 +13603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:3">
       <c r="A913" s="1" t="s">
         <v>949</v>
       </c>
@@ -13409,7 +13614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:3">
       <c r="A914" s="1" t="s">
         <v>950</v>
       </c>
@@ -13420,7 +13625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:3">
       <c r="A915" s="1" t="s">
         <v>951</v>
       </c>
@@ -13431,7 +13636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:3">
       <c r="A916" s="1" t="s">
         <v>952</v>
       </c>
@@ -13442,7 +13647,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:3">
       <c r="A917" s="1" t="s">
         <v>953</v>
       </c>
@@ -13453,7 +13658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:3">
       <c r="A918" s="1" t="s">
         <v>954</v>
       </c>
@@ -13464,7 +13669,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:3">
       <c r="A919" s="1" t="s">
         <v>955</v>
       </c>
@@ -13475,7 +13680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:3">
       <c r="A920" s="1" t="s">
         <v>956</v>
       </c>
@@ -13486,7 +13691,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:3">
       <c r="A921" s="1" t="s">
         <v>957</v>
       </c>
@@ -13497,7 +13702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:3">
       <c r="A922" s="1" t="s">
         <v>958</v>
       </c>
@@ -13508,7 +13713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:3">
       <c r="A923" s="1" t="s">
         <v>959</v>
       </c>
@@ -13519,7 +13724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:3">
       <c r="A924" s="1" t="s">
         <v>960</v>
       </c>
@@ -13530,7 +13735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:3">
       <c r="A925" s="1" t="s">
         <v>961</v>
       </c>
@@ -13541,7 +13746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:3">
       <c r="A926" s="1" t="s">
         <v>962</v>
       </c>
@@ -13552,7 +13757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:3">
       <c r="A927" s="1" t="s">
         <v>963</v>
       </c>
@@ -13563,7 +13768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:3">
       <c r="A928" s="1" t="s">
         <v>964</v>
       </c>
@@ -13574,7 +13779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:3">
       <c r="A929" s="1" t="s">
         <v>965</v>
       </c>
@@ -13585,7 +13790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:3">
       <c r="A930" s="1" t="s">
         <v>966</v>
       </c>
@@ -13596,7 +13801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:3">
       <c r="A931" s="1" t="s">
         <v>967</v>
       </c>
@@ -13607,7 +13812,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:3">
       <c r="A932" s="1" t="s">
         <v>968</v>
       </c>
@@ -13618,7 +13823,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:3">
       <c r="A933" s="1" t="s">
         <v>969</v>
       </c>
@@ -13629,7 +13834,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:3">
       <c r="A934" s="1" t="s">
         <v>970</v>
       </c>
@@ -13640,7 +13845,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:3">
       <c r="A935" s="1" t="s">
         <v>971</v>
       </c>
@@ -13651,7 +13856,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:3">
       <c r="A936" s="1" t="s">
         <v>972</v>
       </c>
@@ -13662,7 +13867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:3">
       <c r="A937" s="1" t="s">
         <v>973</v>
       </c>
@@ -13673,7 +13878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:3">
       <c r="A938" s="1" t="s">
         <v>974</v>
       </c>
@@ -13684,7 +13889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="939" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:3">
       <c r="A939" s="1" t="s">
         <v>975</v>
       </c>
@@ -13695,7 +13900,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:3">
       <c r="A940" s="1" t="s">
         <v>976</v>
       </c>
@@ -13706,7 +13911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:3">
       <c r="A941" s="1" t="s">
         <v>977</v>
       </c>
@@ -13717,7 +13922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:3">
       <c r="A942" s="1" t="s">
         <v>978</v>
       </c>
@@ -13728,7 +13933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:3">
       <c r="A943" s="1" t="s">
         <v>979</v>
       </c>
@@ -13739,7 +13944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:3">
       <c r="A944" s="1" t="s">
         <v>980</v>
       </c>
@@ -13750,7 +13955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:3">
       <c r="A945" s="1" t="s">
         <v>981</v>
       </c>
@@ -13761,7 +13966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:3">
       <c r="A946" s="1" t="s">
         <v>982</v>
       </c>
@@ -13772,8 +13977,383 @@
         <v>74</v>
       </c>
     </row>
+    <row r="947" spans="1:3">
+      <c r="A947" t="s">
+        <v>983</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C947" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3">
+      <c r="A948" t="s">
+        <v>984</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C948" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3">
+      <c r="A949" t="s">
+        <v>985</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C949" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3">
+      <c r="A950" t="s">
+        <v>986</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C950" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3">
+      <c r="A951" t="s">
+        <v>987</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C951" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3">
+      <c r="A952" t="s">
+        <v>988</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C952" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c r="A953" t="s">
+        <v>989</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C953" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3">
+      <c r="A954" t="s">
+        <v>990</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C954" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3">
+      <c r="A955" t="s">
+        <v>991</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C955" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3">
+      <c r="A956" t="s">
+        <v>992</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C956" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3">
+      <c r="A957" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C957" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3">
+      <c r="A958" t="s">
+        <v>993</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C958" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3">
+      <c r="A959" t="s">
+        <v>994</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C959" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3">
+      <c r="A960" t="s">
+        <v>995</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C960" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3">
+      <c r="A961" t="s">
+        <v>996</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3">
+      <c r="A962" t="s">
+        <v>997</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C962" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3">
+      <c r="A963" t="s">
+        <v>998</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3">
+      <c r="A964" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C964" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3">
+      <c r="A965" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3">
+      <c r="A966" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C966" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3">
+      <c r="A967" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C967" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3">
+      <c r="A968" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C968" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3">
+      <c r="A969" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C969" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3">
+      <c r="A970" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C970" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3">
+      <c r="A971" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C971" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3">
+      <c r="A972" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C972" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3">
+      <c r="A973" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C973" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3">
+      <c r="A974" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C974" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3">
+      <c r="A975" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C975" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3">
+      <c r="A976" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C976" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3">
+      <c r="A977" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C977" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3">
+      <c r="A978" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C978" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3">
+      <c r="A979" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C979" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3">
+      <c r="A980" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C980" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
